--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9976189999999999</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N2">
-        <v>2.992857</v>
+        <v>0.315217</v>
       </c>
       <c r="O2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q2">
-        <v>0.7479246079503332</v>
+        <v>0.1459686919856667</v>
       </c>
       <c r="R2">
-        <v>6.731321471553</v>
+        <v>1.313718227871</v>
       </c>
       <c r="S2">
-        <v>0.01192477373120357</v>
+        <v>0.001968613497299238</v>
       </c>
       <c r="T2">
-        <v>0.01192477373120357</v>
+        <v>0.001968613497299238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2810146666666667</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N3">
-        <v>0.843044</v>
+        <v>2.992857</v>
       </c>
       <c r="O3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q3">
-        <v>0.2106794120751111</v>
+        <v>1.385913264799</v>
       </c>
       <c r="R3">
-        <v>1.896114708676</v>
+        <v>12.473219383191</v>
       </c>
       <c r="S3">
-        <v>0.003359034175521513</v>
+        <v>0.01869118317123285</v>
       </c>
       <c r="T3">
-        <v>0.003359034175521512</v>
+        <v>0.01869118317123285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H4">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.969586</v>
+        <v>0.173444</v>
       </c>
       <c r="N4">
-        <v>44.90875800000001</v>
+        <v>0.520332</v>
       </c>
       <c r="O4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q4">
-        <v>11.222843330198</v>
+        <v>0.240952047124</v>
       </c>
       <c r="R4">
-        <v>101.005589971782</v>
+        <v>2.168568424116</v>
       </c>
       <c r="S4">
-        <v>0.1789349700635141</v>
+        <v>0.003249610897498254</v>
       </c>
       <c r="T4">
-        <v>0.1789349700635141</v>
+        <v>0.003249610897498254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.202155333333334</v>
+        <v>1.389221</v>
       </c>
       <c r="H5">
-        <v>6.606466000000001</v>
+        <v>4.167663</v>
       </c>
       <c r="I5">
-        <v>0.5704873989984275</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J5">
-        <v>0.5704873989984274</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9976189999999999</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N5">
-        <v>2.992857</v>
+        <v>42.77123</v>
       </c>
       <c r="O5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q5">
-        <v>2.196912001484667</v>
+        <v>19.80623030394334</v>
       </c>
       <c r="R5">
-        <v>19.772208013362</v>
+        <v>178.25607273549</v>
       </c>
       <c r="S5">
-        <v>0.03502716483264836</v>
+        <v>0.2671176385603888</v>
       </c>
       <c r="T5">
-        <v>0.03502716483264835</v>
+        <v>0.2671176385603888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I6">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J6">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2810146666666667</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N6">
-        <v>0.843044</v>
+        <v>0.315217</v>
       </c>
       <c r="O6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q6">
-        <v>0.618837946944889</v>
+        <v>0.2313855992357778</v>
       </c>
       <c r="R6">
-        <v>5.569541522504001</v>
+        <v>2.082470393122001</v>
       </c>
       <c r="S6">
-        <v>0.009866639518418424</v>
+        <v>0.00312059255679946</v>
       </c>
       <c r="T6">
-        <v>0.009866639518418421</v>
+        <v>0.00312059255679946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I7">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J7">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.969586</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N7">
-        <v>44.90875800000001</v>
+        <v>2.992857</v>
       </c>
       <c r="O7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q7">
-        <v>32.96535364769201</v>
+        <v>2.196912001484667</v>
       </c>
       <c r="R7">
-        <v>296.6881828292281</v>
+        <v>19.772208013362</v>
       </c>
       <c r="S7">
-        <v>0.5255935946473608</v>
+        <v>0.02962875504101987</v>
       </c>
       <c r="T7">
-        <v>0.5255935946473607</v>
+        <v>0.02962875504101987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.07599399999999999</v>
+        <v>2.202155333333334</v>
       </c>
       <c r="H8">
-        <v>0.227982</v>
+        <v>6.606466000000001</v>
       </c>
       <c r="I8">
-        <v>0.01968690343649077</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J8">
-        <v>0.01968690343649077</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9976189999999999</v>
+        <v>0.173444</v>
       </c>
       <c r="N8">
-        <v>2.992857</v>
+        <v>0.520332</v>
       </c>
       <c r="O8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q8">
-        <v>0.07581305828599999</v>
+        <v>0.3819506296346667</v>
       </c>
       <c r="R8">
-        <v>0.682317524574</v>
+        <v>3.437555666712001</v>
       </c>
       <c r="S8">
-        <v>0.001208749593637027</v>
+        <v>0.00515119478411563</v>
       </c>
       <c r="T8">
-        <v>0.001208749593637027</v>
+        <v>0.00515119478411563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.07599399999999999</v>
+        <v>2.202155333333334</v>
       </c>
       <c r="H9">
-        <v>0.227982</v>
+        <v>6.606466000000001</v>
       </c>
       <c r="I9">
-        <v>0.01968690343649077</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J9">
-        <v>0.01968690343649077</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2810146666666667</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N9">
-        <v>0.843044</v>
+        <v>42.77123</v>
       </c>
       <c r="O9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q9">
-        <v>0.02135542857866667</v>
+        <v>31.39629741924223</v>
       </c>
       <c r="R9">
-        <v>0.192198857208</v>
+        <v>282.5666767731801</v>
       </c>
       <c r="S9">
-        <v>0.0003404870638383772</v>
+        <v>0.423427613304986</v>
       </c>
       <c r="T9">
-        <v>0.0003404870638383772</v>
+        <v>0.423427613304986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H10">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>14.969586</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N10">
-        <v>44.90875800000001</v>
+        <v>0.315217</v>
       </c>
       <c r="O10">
-        <v>0.9213062296732859</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P10">
-        <v>0.9213062296732859</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q10">
-        <v>1.137598718484</v>
+        <v>0.01582574967788889</v>
       </c>
       <c r="R10">
-        <v>10.238388466356</v>
+        <v>0.142431747101</v>
       </c>
       <c r="S10">
-        <v>0.01813766677901537</v>
+        <v>0.000213434702996656</v>
       </c>
       <c r="T10">
-        <v>0.01813766677901537</v>
+        <v>0.000213434702996656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8322706666666666</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H11">
-        <v>2.496812</v>
+        <v>0.451853</v>
       </c>
       <c r="I11">
-        <v>0.2156069195948426</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J11">
-        <v>0.2156069195948426</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>2.992857</v>
       </c>
       <c r="O11">
-        <v>0.06139866523632875</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P11">
-        <v>0.06139866523632875</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q11">
-        <v>0.8302890302093332</v>
+        <v>0.1502590460023333</v>
       </c>
       <c r="R11">
-        <v>7.472601271883999</v>
+        <v>1.352331414021</v>
       </c>
       <c r="S11">
-        <v>0.01323797707883979</v>
+        <v>0.002026475554638433</v>
       </c>
       <c r="T11">
-        <v>0.01323797707883979</v>
+        <v>0.002026475554638433</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8322706666666666</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H12">
-        <v>2.496812</v>
+        <v>0.451853</v>
       </c>
       <c r="I12">
-        <v>0.2156069195948426</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J12">
-        <v>0.2156069195948426</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2810146666666667</v>
+        <v>0.173444</v>
       </c>
       <c r="N12">
-        <v>0.843044</v>
+        <v>0.520332</v>
       </c>
       <c r="O12">
-        <v>0.01729510509038539</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P12">
-        <v>0.01729510509038539</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q12">
-        <v>0.2338802639697778</v>
+        <v>0.02612373057733334</v>
       </c>
       <c r="R12">
-        <v>2.104922375728</v>
+        <v>0.235113575196</v>
       </c>
       <c r="S12">
-        <v>0.003728944332607076</v>
+        <v>0.0003523188973934021</v>
       </c>
       <c r="T12">
-        <v>0.003728944332607075</v>
+        <v>0.0003523188973934021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8322706666666666</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H13">
-        <v>2.496812</v>
+        <v>0.451853</v>
       </c>
       <c r="I13">
-        <v>0.2156069195948426</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J13">
-        <v>0.2156069195948426</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.969586</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N13">
-        <v>44.90875800000001</v>
+        <v>42.77123</v>
       </c>
       <c r="O13">
-        <v>0.9213062296732859</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P13">
-        <v>0.9213062296732859</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q13">
-        <v>12.458747319944</v>
+        <v>2.147367621021111</v>
       </c>
       <c r="R13">
-        <v>112.128725879496</v>
+        <v>19.32630858919</v>
       </c>
       <c r="S13">
-        <v>0.1986399981833958</v>
+        <v>0.02896057246865386</v>
       </c>
       <c r="T13">
-        <v>0.1986399981833957</v>
+        <v>0.02896057246865386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.031517666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.094553</v>
+      </c>
+      <c r="I14">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="J14">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1050723333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.315217</v>
+      </c>
+      <c r="O14">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="P14">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="Q14">
+        <v>0.1083839681112222</v>
+      </c>
+      <c r="R14">
+        <v>0.9754557130010001</v>
+      </c>
+      <c r="S14">
+        <v>0.001461725385163783</v>
+      </c>
+      <c r="T14">
+        <v>0.001461725385163783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.031517666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.094553</v>
+      </c>
+      <c r="I15">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="J15">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9976189999999999</v>
+      </c>
+      <c r="N15">
+        <v>2.992857</v>
+      </c>
+      <c r="O15">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="P15">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="Q15">
+        <v>1.029061623102333</v>
+      </c>
+      <c r="R15">
+        <v>9.261554607920999</v>
+      </c>
+      <c r="S15">
+        <v>0.01387848704563879</v>
+      </c>
+      <c r="T15">
+        <v>0.01387848704563879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.031517666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.094553</v>
+      </c>
+      <c r="I16">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="J16">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.173444</v>
+      </c>
+      <c r="N16">
+        <v>0.520332</v>
+      </c>
+      <c r="O16">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="P16">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="Q16">
+        <v>0.1789105501773333</v>
+      </c>
+      <c r="R16">
+        <v>1.610194951596</v>
+      </c>
+      <c r="S16">
+        <v>0.00241288538725082</v>
+      </c>
+      <c r="T16">
+        <v>0.00241288538725082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.031517666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.094553</v>
+      </c>
+      <c r="I17">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="J17">
+        <v>0.2160919965629775</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.25707666666667</v>
+      </c>
+      <c r="N17">
+        <v>42.77123</v>
+      </c>
+      <c r="O17">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="P17">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="Q17">
+        <v>14.70642645668778</v>
+      </c>
+      <c r="R17">
+        <v>132.35783811019</v>
+      </c>
+      <c r="S17">
+        <v>0.1983388987449241</v>
+      </c>
+      <c r="T17">
+        <v>0.1983388987449241</v>
       </c>
     </row>
   </sheetData>
